--- a/table_3.xlsx
+++ b/table_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,37 +422,163 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ZDT1</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>dl1_mr icache_h read_gm -* gl_coal</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>∆</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Time (ms)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.0425951</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6.0019940947929E−05</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1225</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.0446444</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.000228515035332</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1261</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.1151921</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3.01888654390947E−05</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3040</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.3589762</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5.15847556321607E−05</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6121</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.304388</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6.86264365198935E−05</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9171</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="24">
+    <mergeCell ref="D4"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="A1"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="D2"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="A5"/>
-    <mergeCell ref="A4"/>
     <mergeCell ref="A3"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="A1"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_3.xlsx
+++ b/table_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,160 +424,228 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ZDT1</t>
+          <t>Number of models</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Number of Crops</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>∆</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Time (ms)</t>
+          <t>Top-5 error</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>compared to base</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0425951</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.0019940947929E−05</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1225</t>
+          <t>10.07%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>base</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0446444</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.000228515035332</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>9.15%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-0.92%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.1151921</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.01888654390947E−05</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>7.89%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-2.18%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.3589762</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.15847556321607E−05</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6121</t>
+          <t>8.09%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-1.98%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.304388</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6.86264365198935E−05</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9171</t>
+          <t>7.62%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-2.45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.67%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-3.45%</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="35">
     <mergeCell ref="D4"/>
     <mergeCell ref="A4"/>
     <mergeCell ref="D3"/>
+    <mergeCell ref="C7"/>
     <mergeCell ref="B6"/>
+    <mergeCell ref="E7"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="D5"/>
     <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="B7"/>
     <mergeCell ref="D1"/>
     <mergeCell ref="C6"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
+    <mergeCell ref="E5"/>
     <mergeCell ref="A6"/>
     <mergeCell ref="C4"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="A7"/>
     <mergeCell ref="D6"/>
     <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
+    <mergeCell ref="E1"/>
     <mergeCell ref="D2"/>
     <mergeCell ref="B1"/>
     <mergeCell ref="A3"/>
+    <mergeCell ref="D7"/>
     <mergeCell ref="A2"/>
+    <mergeCell ref="E6"/>
     <mergeCell ref="C2"/>
+    <mergeCell ref="E2"/>
     <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_3.xlsx
+++ b/table_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,229 +424,204 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Number of models</t>
+          <t>Dataset</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Number of Crops</t>
+          <t>markers</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>prev. (%)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Top-5 error</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>compared to base</t>
+          <t>H&lt;0.1 (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>WMT18/19 en-de</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>”</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.07%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>base</t>
+          <t>73.6</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>&gt;</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.15%</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-0.92%</t>
+          <t>88.8</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>¨
+wahlen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>21.1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.89%</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-2.18%</t>
+          <t>78.0</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>klicken</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.09%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-1.98%</t>
+          <t>82.8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>WMT18 en-cs</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>gt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.62%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-2.45%</t>
+          <t>43.2</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>&amp;amp;</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.67%</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-3.45%</t>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>www</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.9</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="30">
     <mergeCell ref="D4"/>
-    <mergeCell ref="A4"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="B9"/>
     <mergeCell ref="D3"/>
+    <mergeCell ref="D9"/>
     <mergeCell ref="C7"/>
+    <mergeCell ref="D8"/>
     <mergeCell ref="B6"/>
-    <mergeCell ref="E7"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="D5"/>
     <mergeCell ref="B4"/>
     <mergeCell ref="C3"/>
-    <mergeCell ref="E3"/>
     <mergeCell ref="B7"/>
     <mergeCell ref="D1"/>
     <mergeCell ref="C6"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="E5"/>
     <mergeCell ref="A6"/>
     <mergeCell ref="C4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="A7"/>
     <mergeCell ref="D6"/>
     <mergeCell ref="C1"/>
     <mergeCell ref="B2"/>
-    <mergeCell ref="E1"/>
     <mergeCell ref="D2"/>
+    <mergeCell ref="C9"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="A3"/>
+    <mergeCell ref="B8"/>
     <mergeCell ref="D7"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="E6"/>
     <mergeCell ref="C2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_3.xlsx
+++ b/table_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,46 +422,58 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Position of Layers</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
-          <t>0 2 4 6</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>8 10</t>
+          <t>GPU Specification</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AdaHIT</t>
+          <t>CUDA cores</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.809 0.808 0.809 0.801</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.793 0.763</t>
+          <t>4,352</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Memory Capacity</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>11 GB GDDR6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Memory Bandwidth</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>616 GB/sec</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D1"/>
+  <mergeCells count="8">
+    <mergeCell ref="B1"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="B2"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3"/>
     <mergeCell ref="A1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_3.xlsx
+++ b/table_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,59 +422,343 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Video Name</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>GPU Specification</t>
+          <t>Num of Frames</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Object in Interest</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Object Occupancy</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Object Count</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Local Occupancy</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Local Count</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Region of Interest</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CUDA cores</t>
+          <t>amsterdam [38]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4,352</t>
+          <t>3,580K</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>33H</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.07%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>29.05%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Lower Right</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Memory Capacity</t>
+          <t>archie [8]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11 GB GDDR6</t>
+          <t>3,567K</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>33H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Bus</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10.48%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.63%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Upper Left</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Memory Bandwidth</t>
+          <t>jackson [39]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>616 GB/sec</t>
+          <t>2,921K</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27H</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.91%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>18.28%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Lower Left</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>shinjuku [40]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1,782K</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.29%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>19.91%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Lower Left</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>taipei [41]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3,564K</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>33H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.48%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>22.16%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Lower Right</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="54">
+    <mergeCell ref="I5"/>
+    <mergeCell ref="D4"/>
+    <mergeCell ref="I1"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="I4"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="G1"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="F1"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="I6"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="H1"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="A1"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="E1"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="G6"/>
     <mergeCell ref="B1"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="A4"/>
+    <mergeCell ref="F2"/>
     <mergeCell ref="A3"/>
-    <mergeCell ref="B2"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="I3"/>
     <mergeCell ref="A2"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="A1"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="E2"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/table_3.xlsx
+++ b/table_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,55 +425,101 @@
       <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
-          <t>GPU Specification</t>
+          <t>decoding</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Prec</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Recall F1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EER</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CUDA cores</t>
+          <t>w/o autoreg trn</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4,352</t>
+          <t>greedy beam(w=100)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>77.94
+78.87</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.63 79.28
+81.72 80.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6.63
+6.44</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Memory Capacity</t>
+          <t>w autoreg trn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11 GB GDDR6</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Memory Bandwidth</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>616 GB/sec</t>
+          <t>greedy beam(w=100)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>82.28
+82.26</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.09 82.68
+83.14 82.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5.90
+5.91</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="15">
     <mergeCell ref="B1"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="A4"/>
+    <mergeCell ref="C3"/>
     <mergeCell ref="A3"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="C1"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="E1"/>
     <mergeCell ref="B2"/>
-    <mergeCell ref="A2"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
     <mergeCell ref="B3"/>
+    <mergeCell ref="E2"/>
     <mergeCell ref="A1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/table_3.xlsx
+++ b/table_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,343 +422,115 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Video Name</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Num of Frames</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Length</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Object in Interest</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Object Occupancy</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Object Count</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Local Occupancy</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Local Count</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Region of Interest</t>
+          <t>System Overview</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>amsterdam [38]</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3,580K</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>33H</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Car</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>70.07%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>29.05%</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Lower Right</t>
+          <t>20-core, Xeon E5-2630 v4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>archie [8]</t>
+          <t>GPU</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3,567K</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>33H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Bus</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10.48%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.63%</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Upper Left</t>
+          <t>2 × RTX 2080 Ti</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jackson [39]</t>
+          <t>Memory Capacity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2,921K</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>27H</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Car</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>31.91%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>18.28%</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Lower Left</t>
+          <t>192 GB DRAM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>shinjuku [40]</t>
+          <t>Operating System</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1,782K</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>16H</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Car</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.29%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>19.91%</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Lower Left</t>
+          <t>Ubuntu 18.04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>taipei [41]</t>
+          <t>CUDA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3,564K</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>33H</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Car</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.48%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>22.16%</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Lower Right</t>
+          <t>10.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NVIDIA Driver</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>440.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ML framework</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PyTorch 1.10</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="I5"/>
-    <mergeCell ref="D4"/>
-    <mergeCell ref="I1"/>
+  <mergeCells count="16">
+    <mergeCell ref="B1"/>
+    <mergeCell ref="A8"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="A5"/>
     <mergeCell ref="A4"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="G4"/>
-    <mergeCell ref="I4"/>
-    <mergeCell ref="H3"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="B7"/>
     <mergeCell ref="B6"/>
-    <mergeCell ref="G1"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="B3"/>
     <mergeCell ref="B5"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="H5"/>
-    <mergeCell ref="F1"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="I6"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="C6"/>
-    <mergeCell ref="H1"/>
-    <mergeCell ref="G2"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="I2"/>
-    <mergeCell ref="F6"/>
-    <mergeCell ref="C5"/>
     <mergeCell ref="A1"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="H6"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="E1"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="F5"/>
-    <mergeCell ref="G6"/>
-    <mergeCell ref="B1"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="A3"/>
-    <mergeCell ref="G3"/>
-    <mergeCell ref="H2"/>
-    <mergeCell ref="I3"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="E6"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="A5"/>
-    <mergeCell ref="G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
